--- a/individual_case_outputs/avey/225.xlsx
+++ b/individual_case_outputs/avey/225.xlsx
@@ -617,7 +617,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>intermittant claudication</t>
+          <t>peripheral vascular disease</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -817,11 +817,7 @@
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>peripheral vascular disease</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
           <t>erysipelas</t>
